--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_22.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>923662.3210585986</v>
+        <v>936726.3068901759</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6605221.096453903</v>
+        <v>5435918.088148479</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5050599.152668069</v>
+        <v>3904565.274227926</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7707375.05005135</v>
+        <v>8168856.833298386</v>
       </c>
     </row>
     <row r="11">
@@ -659,25 +661,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>19.8984304622902</v>
       </c>
       <c r="X2" t="n">
-        <v>338.4599684138164</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -814,16 +816,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>13.98329378456244</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -865,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>183.8293086577263</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -908,13 +910,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>140.7764717473218</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>306.8301392002974</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>105.6240463898359</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
         <v>279.9701659793371</v>
@@ -1117,7 +1119,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
@@ -1151,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>45.97920513951075</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>116.2444241593369</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>27.35334490128957</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1385,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>267.4112863788737</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1430,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>306.8301392002974</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1588,10 +1590,10 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>178.7193607848914</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1616,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>45.82170770786936</v>
+        <v>320.1950987987711</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>98.9457413571089</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,16 +1821,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059089</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1853,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>378.9769832968749</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1904,13 +1906,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>334.3658782825033</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2002,22 +2004,22 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>168.1821651292104</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2065,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>85.05410598379265</v>
       </c>
     </row>
     <row r="20">
@@ -2093,10 +2095,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>84.73179601342657</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2242,16 +2244,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>153.0251390105127</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>54.68688746169129</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2333,10 +2335,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2369,7 +2371,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>219.9844192126098</v>
+        <v>170.7879507721958</v>
       </c>
       <c r="U23" t="n">
         <v>254.489886823085</v>
@@ -2384,7 +2386,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>360.5621482941648</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -2485,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>80.14874043258263</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>136.1769805884533</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,13 +2566,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -2609,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>191.9284587841973</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>38.60758992810494</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -2731,7 +2733,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2792,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2807,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>307.7994123985592</v>
+        <v>271.338631283351</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2843,10 +2845,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>31.99018014062471</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2947,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>142.535930338006</v>
+        <v>180.6077930059077</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>53.92978098120716</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -3241,19 +3243,19 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>266.2723283900672</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3275,13 +3277,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>282.1353944293379</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -3320,13 +3322,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3475,10 +3477,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U37" t="n">
-        <v>217.6137824053168</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
         <v>271.1468876098733</v>
@@ -3490,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3506,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3518,7 +3520,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
         <v>85.48824505609757</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>177.9195839254089</v>
       </c>
       <c r="U38" t="n">
-        <v>253.7334377804137</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>105.8745427447691</v>
       </c>
       <c r="F40" t="n">
-        <v>106.9706214097036</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -3718,16 +3720,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3737,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>123.8929958462114</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3791,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>119.7853234666721</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3898,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>92.54811727372233</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>213.5952110672385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>24.00217549004173</v>
       </c>
       <c r="E44" t="n">
         <v>410.1968133282722</v>
@@ -3992,7 +3994,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
-        <v>104.3760416084724</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -4031,16 +4033,16 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>54.68688746169084</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,22 +4188,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1793.501845873987</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C2" t="n">
-        <v>1793.501845873987</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D2" t="n">
-        <v>1389.037915967048</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E2" t="n">
-        <v>974.6977004839443</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F2" t="n">
-        <v>553.6672884376319</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>144.9390043304641</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>58.5872416475372</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M2" t="n">
-        <v>710.3964058570388</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N2" t="n">
-        <v>1435.413521245312</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O2" t="n">
-        <v>2079.044377662417</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P2" t="n">
-        <v>2608.201075581568</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q2" t="n">
-        <v>2929.36208237686</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>2545.601781512029</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X2" t="n">
-        <v>2203.723025538477</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y2" t="n">
-        <v>2203.723025538477</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1561.703728412895</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C3" t="n">
-        <v>1427.70865716184</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D3" t="n">
-        <v>1310.811499381233</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E3" t="n">
-        <v>1190.318683373561</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F3" t="n">
-        <v>1081.358803556065</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G3" t="n">
-        <v>974.3686908704041</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>903.6214779061202</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>882.8728865263604</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
-        <v>882.8728865263604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>882.8728865263604</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L3" t="n">
-        <v>882.8728865263604</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M3" t="n">
-        <v>882.8728865263604</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N3" t="n">
-        <v>1284.295115295822</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O3" t="n">
-        <v>1988.252205841717</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P3" t="n">
-        <v>2549.958098330247</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
-        <v>2899.80256301423</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2929.36208237686</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2821.372072491169</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>2662.030208678177</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>2464.679397816396</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>2250.96787080943</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>2037.734702545758</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X3" t="n">
-        <v>1861.408720684651</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>1702.006761048481</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1147.921091948674</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="C4" t="n">
-        <v>976.8277195103904</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="D4" t="n">
-        <v>817.3330748333003</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="E4" t="n">
-        <v>656.4222597016197</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>491.791133812211</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>324.5407427377544</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H4" t="n">
-        <v>174.9332875432111</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>58.5872416475372</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>72.66979105274773</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>227.2221187749857</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>487.1192190550462</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>776.3832754955395</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1057.22205788979</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1316.782668216264</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1522.458108465876</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1587.986138268387</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1401.594370148297</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1162.045631125</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U4" t="n">
-        <v>1162.045631125</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V4" t="n">
-        <v>1162.045631125</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W4" t="n">
-        <v>1162.045631125</v>
+        <v>1102.679664435236</v>
       </c>
       <c r="X4" t="n">
-        <v>1162.045631125</v>
+        <v>864.3358022949199</v>
       </c>
       <c r="Y4" t="n">
-        <v>1162.045631125</v>
+        <v>639.6001036836846</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2019.454887142904</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C5" t="n">
-        <v>1609.330296456174</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D5" t="n">
-        <v>1204.866366549235</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E5" t="n">
-        <v>790.5261510661317</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F5" t="n">
-        <v>369.4957390198192</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G5" t="n">
-        <v>369.4957390198192</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H5" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I5" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J5" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K5" t="n">
-        <v>123.1055953709714</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L5" t="n">
-        <v>835.6969951832094</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M5" t="n">
-        <v>1560.714110571482</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N5" t="n">
-        <v>2285.731225959755</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O5" t="n">
-        <v>2929.36208237686</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P5" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q5" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R5" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T5" t="n">
-        <v>2571.87452311782</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U5" t="n">
-        <v>2429.676066807394</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V5" t="n">
-        <v>2429.676066807394</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W5" t="n">
-        <v>2429.676066807394</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X5" t="n">
-        <v>2429.676066807394</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y5" t="n">
-        <v>2429.676066807394</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C6" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D6" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E6" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F6" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G6" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H6" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I6" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J6" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K6" t="n">
-        <v>514.3934979128359</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L6" t="n">
-        <v>1175.481669832124</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="M6" t="n">
-        <v>1175.481669832124</v>
+        <v>1254.00821346069</v>
       </c>
       <c r="N6" t="n">
-        <v>1175.481669832124</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="O6" t="n">
-        <v>1879.438760378019</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R6" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S6" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T6" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U6" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V6" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W6" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X6" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y6" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>326.1890127285469</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C7" t="n">
-        <v>219.4980567792177</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D7" t="n">
-        <v>219.4980567792177</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I7" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J7" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K7" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L7" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M7" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N7" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O7" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P7" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q7" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S7" t="n">
-        <v>1587.986138268387</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T7" t="n">
-        <v>1587.986138268387</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U7" t="n">
-        <v>1305.187990814512</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V7" t="n">
-        <v>1031.302245754033</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W7" t="n">
-        <v>752.2325812629078</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X7" t="n">
-        <v>513.8887191225913</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y7" t="n">
-        <v>513.8887191225913</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2428.183171250072</v>
+        <v>2497.216680879404</v>
       </c>
       <c r="C8" t="n">
-        <v>2018.058580563342</v>
+        <v>2087.092090192674</v>
       </c>
       <c r="D8" t="n">
-        <v>1613.594650656403</v>
+        <v>1682.628160285734</v>
       </c>
       <c r="E8" t="n">
-        <v>1199.254435173299</v>
+        <v>1268.287944802631</v>
       </c>
       <c r="F8" t="n">
-        <v>778.224023126987</v>
+        <v>847.2575327563186</v>
       </c>
       <c r="G8" t="n">
-        <v>369.4957390198192</v>
+        <v>438.5292486491508</v>
       </c>
       <c r="H8" t="n">
-        <v>58.5872416475372</v>
+        <v>127.6207512768688</v>
       </c>
       <c r="I8" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>228.5769506790367</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K8" t="n">
-        <v>766.7364517880762</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L8" t="n">
-        <v>1479.327851600314</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M8" t="n">
-        <v>2204.344966988587</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N8" t="n">
-        <v>2929.36208237686</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O8" t="n">
-        <v>2929.36208237686</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P8" t="n">
-        <v>2929.36208237686</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q8" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R8" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>2811.943472114904</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T8" t="n">
-        <v>2811.943472114904</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U8" t="n">
-        <v>2811.943472114904</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V8" t="n">
-        <v>2811.943472114904</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W8" t="n">
-        <v>2428.183171250072</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="X8" t="n">
-        <v>2428.183171250072</v>
+        <v>3308.374533595803</v>
       </c>
       <c r="Y8" t="n">
-        <v>2428.183171250072</v>
+        <v>2907.437860543893</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C9" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D9" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E9" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F9" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G9" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H9" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I9" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J9" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K9" t="n">
-        <v>514.3934979128359</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="L9" t="n">
-        <v>818.3534296212343</v>
+        <v>935.0781392037288</v>
       </c>
       <c r="M9" t="n">
-        <v>1543.370545009507</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="N9" t="n">
-        <v>1543.370545009507</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O9" t="n">
-        <v>1543.370545009507</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R9" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S9" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T9" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U9" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V9" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W9" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X9" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y9" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1147.921091948674</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C10" t="n">
-        <v>976.8277195103904</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D10" t="n">
-        <v>817.3330748333003</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E10" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F10" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G10" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H10" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I10" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J10" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K10" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L10" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M10" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N10" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O10" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P10" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q10" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1587.986138268387</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S10" t="n">
-        <v>1587.986138268387</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T10" t="n">
-        <v>1587.986138268387</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U10" t="n">
-        <v>1587.986138268387</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V10" t="n">
-        <v>1587.986138268387</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W10" t="n">
-        <v>1587.986138268387</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X10" t="n">
-        <v>1560.356496953953</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y10" t="n">
-        <v>1335.620798342718</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1982.923154454562</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C11" t="n">
-        <v>1572.798563767832</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D11" t="n">
-        <v>1572.798563767832</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.458348284728</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F11" t="n">
-        <v>737.4279362384159</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G11" t="n">
-        <v>328.6996521312481</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H11" t="n">
-        <v>58.5872416475372</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I11" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J11" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K11" t="n">
-        <v>58.5872416475372</v>
+        <v>811.4159697457983</v>
       </c>
       <c r="L11" t="n">
-        <v>771.1786414597752</v>
+        <v>1524.007369558036</v>
       </c>
       <c r="M11" t="n">
-        <v>1496.195756848048</v>
+        <v>2300.32596054979</v>
       </c>
       <c r="N11" t="n">
-        <v>2221.212872236321</v>
+        <v>3053.506977188408</v>
       </c>
       <c r="O11" t="n">
-        <v>2864.843728653426</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="P11" t="n">
-        <v>2888.805436687295</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q11" t="n">
-        <v>2888.805436687295</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R11" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T11" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U11" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V11" t="n">
-        <v>2794.081007170961</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="W11" t="n">
-        <v>2794.081007170961</v>
+        <v>3748.926052554716</v>
       </c>
       <c r="X11" t="n">
-        <v>2794.081007170961</v>
+        <v>3348.282654723669</v>
       </c>
       <c r="Y11" t="n">
-        <v>2393.144334119051</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C12" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D12" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E12" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F12" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G12" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H12" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I12" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J12" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K12" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="L12" t="n">
-        <v>58.5872416475372</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="M12" t="n">
-        <v>783.60435703581</v>
+        <v>1116.967047979007</v>
       </c>
       <c r="N12" t="n">
-        <v>1508.621472424083</v>
+        <v>1990.625140090625</v>
       </c>
       <c r="O12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R12" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S12" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T12" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U12" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V12" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W12" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X12" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y12" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G13" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H13" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I13" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J13" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K13" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L13" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M13" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N13" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O13" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P13" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q13" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S13" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T13" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U13" t="n">
-        <v>793.9747653465236</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V13" t="n">
-        <v>520.0890202860455</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W13" t="n">
-        <v>339.5644134326198</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y13" t="n">
-        <v>339.5644134326198</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1287.51597772431</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C14" t="n">
-        <v>877.39138703758</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D14" t="n">
-        <v>472.9274571306405</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E14" t="n">
-        <v>58.5872416475372</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F14" t="n">
-        <v>58.5872416475372</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I14" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K14" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="L14" t="n">
-        <v>771.1786414597752</v>
+        <v>1047.9539810018</v>
       </c>
       <c r="M14" t="n">
-        <v>1496.195756848048</v>
+        <v>1824.272571993554</v>
       </c>
       <c r="N14" t="n">
-        <v>2221.212872236321</v>
+        <v>2577.453588632172</v>
       </c>
       <c r="O14" t="n">
-        <v>2864.843728653426</v>
+        <v>3221.084445049277</v>
       </c>
       <c r="P14" t="n">
-        <v>2929.36208237686</v>
+        <v>3750.241142968428</v>
       </c>
       <c r="Q14" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U14" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V14" t="n">
-        <v>2883.077529136588</v>
+        <v>3735.426093364339</v>
       </c>
       <c r="W14" t="n">
-        <v>2499.317228271756</v>
+        <v>3351.665792499507</v>
       </c>
       <c r="X14" t="n">
-        <v>2098.673830440709</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y14" t="n">
-        <v>1697.737157388799</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C15" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D15" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E15" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F15" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G15" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H15" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L15" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M15" t="n">
-        <v>676.1022315638701</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="N15" t="n">
-        <v>1401.119346952143</v>
+        <v>862.0033225378832</v>
       </c>
       <c r="O15" t="n">
-        <v>2105.076437498037</v>
+        <v>1565.960413083777</v>
       </c>
       <c r="P15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R15" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S15" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T15" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U15" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V15" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W15" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X15" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y15" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1076.772912800399</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C16" t="n">
-        <v>976.8277195103904</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D16" t="n">
-        <v>817.3330748333003</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E16" t="n">
-        <v>656.4222597016197</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F16" t="n">
-        <v>491.791133812211</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G16" t="n">
-        <v>324.5407427377544</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H16" t="n">
-        <v>174.9332875432111</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I16" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J16" t="n">
-        <v>72.66979105274773</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K16" t="n">
-        <v>227.2221187749857</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L16" t="n">
-        <v>487.1192190550462</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M16" t="n">
-        <v>776.3832754955395</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N16" t="n">
-        <v>1057.22205788979</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O16" t="n">
-        <v>1316.782668216264</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P16" t="n">
-        <v>1522.458108465876</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q16" t="n">
-        <v>1587.986138268387</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1502.713419943787</v>
+        <v>1525.303288018057</v>
       </c>
       <c r="S16" t="n">
-        <v>1316.321651823697</v>
+        <v>1338.911519897968</v>
       </c>
       <c r="T16" t="n">
-        <v>1076.772912800399</v>
+        <v>1099.36278087467</v>
       </c>
       <c r="U16" t="n">
-        <v>1076.772912800399</v>
+        <v>816.5646334207938</v>
       </c>
       <c r="V16" t="n">
-        <v>1076.772912800399</v>
+        <v>542.6788883603158</v>
       </c>
       <c r="W16" t="n">
-        <v>1076.772912800399</v>
+        <v>263.6092238691901</v>
       </c>
       <c r="X16" t="n">
-        <v>1076.772912800399</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="Y16" t="n">
-        <v>1076.772912800399</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="17">
@@ -5489,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5552,13 +5554,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3360.055967471622</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>2959.412569640574</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5595,22 +5597,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="M18" t="n">
-        <v>754.331869609911</v>
+        <v>1266.074801429505</v>
       </c>
       <c r="N18" t="n">
-        <v>1627.989961721529</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P18" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5647,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>263.1246725686132</v>
+        <v>1066.231502096085</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>895.138129657802</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>735.6434849807119</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>574.7326698490315</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>410.1015439596227</v>
       </c>
       <c r="G19" t="n">
-        <v>93.2436976906228</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5698,25 +5700,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="V19" t="n">
-        <v>913.9039397142094</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="W19" t="n">
-        <v>913.9039397142094</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="X19" t="n">
-        <v>675.5600775738928</v>
+        <v>1339.844446857597</v>
       </c>
       <c r="Y19" t="n">
-        <v>450.8243789626575</v>
+        <v>1253.93120849013</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E20" t="n">
-        <v>873.3089913790386</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F20" t="n">
-        <v>452.2785793327262</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G20" t="n">
-        <v>404.1521950629048</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5777,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4576.597211790305</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="21">
@@ -5829,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>286.056555253256</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K21" t="n">
-        <v>741.8628115185547</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L21" t="n">
-        <v>1402.950983437843</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M21" t="n">
-        <v>1402.950983437843</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N21" t="n">
-        <v>1402.950983437843</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O21" t="n">
-        <v>1402.950983437843</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P21" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>916.6240469015422</v>
+        <v>3458.450207833939</v>
       </c>
       <c r="C22" t="n">
-        <v>745.5306744632587</v>
+        <v>3287.356835395656</v>
       </c>
       <c r="D22" t="n">
-        <v>586.0360297861687</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E22" t="n">
-        <v>425.1252146544881</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F22" t="n">
-        <v>260.4940887650794</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="I22" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J22" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K22" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L22" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M22" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N22" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O22" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P22" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.642594311473</v>
+        <v>4388.299139470661</v>
       </c>
       <c r="W22" t="n">
-        <v>1567.403314047138</v>
+        <v>4109.229474979536</v>
       </c>
       <c r="X22" t="n">
-        <v>1329.059451906822</v>
+        <v>3870.885612839219</v>
       </c>
       <c r="Y22" t="n">
-        <v>1104.323753295587</v>
+        <v>3646.149914227984</v>
       </c>
     </row>
     <row r="23">
@@ -5963,31 +5965,31 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2549.191389976085</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C23" t="n">
-        <v>2139.066799289355</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D23" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E23" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F23" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G23" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H23" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6017,22 +6019,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4354.390727737164</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y23" t="n">
-        <v>2549.191389976085</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C24" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D24" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E24" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F24" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G24" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H24" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I24" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K24" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L24" t="n">
-        <v>2808.508546243273</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M24" t="n">
-        <v>3651.48562693784</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N24" t="n">
-        <v>4525.143719049458</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O24" t="n">
-        <v>4525.143719049458</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R24" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S24" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T24" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U24" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V24" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W24" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X24" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y24" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>242.8511528851661</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="C25" t="n">
-        <v>242.8511528851661</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="D25" t="n">
-        <v>242.8511528851661</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="E25" t="n">
-        <v>242.8511528851661</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="F25" t="n">
-        <v>242.8511528851661</v>
+        <v>3565.989880074963</v>
       </c>
       <c r="G25" t="n">
-        <v>242.8511528851661</v>
+        <v>3398.739489000507</v>
       </c>
       <c r="H25" t="n">
-        <v>93.2436976906228</v>
+        <v>3249.132033805963</v>
       </c>
       <c r="I25" t="n">
-        <v>93.2436976906228</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="J25" t="n">
-        <v>107.3262470958333</v>
+        <v>3146.8685373155</v>
       </c>
       <c r="K25" t="n">
-        <v>261.8785748180713</v>
+        <v>3301.420865037738</v>
       </c>
       <c r="L25" t="n">
-        <v>521.7756750981318</v>
+        <v>3561.317965317798</v>
       </c>
       <c r="M25" t="n">
-        <v>811.0397315386251</v>
+        <v>3850.582021758291</v>
       </c>
       <c r="N25" t="n">
-        <v>1091.878513932875</v>
+        <v>4131.420804152542</v>
       </c>
       <c r="O25" t="n">
-        <v>1351.43912425935</v>
+        <v>4390.981414479016</v>
       </c>
       <c r="P25" t="n">
-        <v>1557.114564508962</v>
+        <v>4596.656854728629</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.642594311473</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.642594311473</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.642594311473</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T25" t="n">
-        <v>1541.684270642198</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U25" t="n">
-        <v>1258.886123188322</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V25" t="n">
-        <v>985.0003781278438</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="W25" t="n">
-        <v>705.9307136367181</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="X25" t="n">
-        <v>467.5868514964014</v>
+        <v>3730.621005964372</v>
       </c>
       <c r="Y25" t="n">
-        <v>242.8511528851661</v>
+        <v>3730.621005964372</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
         <v>179.5954603735497</v>
@@ -6224,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6257,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C27" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D27" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E27" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F27" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G27" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H27" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I27" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L27" t="n">
-        <v>2808.508546243273</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M27" t="n">
-        <v>3438.682327735538</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N27" t="n">
-        <v>4312.340419847156</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O27" t="n">
-        <v>4312.340419847156</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P27" t="n">
-        <v>4312.340419847156</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R27" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S27" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T27" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U27" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V27" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W27" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X27" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y27" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4105.773792315753</v>
+        <v>1182.57754799176</v>
       </c>
       <c r="C28" t="n">
-        <v>3934.680419877469</v>
+        <v>1011.484175553476</v>
       </c>
       <c r="D28" t="n">
-        <v>3775.185775200379</v>
+        <v>851.989530876386</v>
       </c>
       <c r="E28" t="n">
-        <v>3614.274960068698</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F28" t="n">
-        <v>3449.64383417929</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G28" t="n">
-        <v>3282.393443104833</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H28" t="n">
-        <v>3132.785987910289</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I28" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J28" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K28" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L28" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M28" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N28" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O28" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P28" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V28" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="W28" t="n">
-        <v>4383.115220040014</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="X28" t="n">
-        <v>4144.771357899697</v>
+        <v>1595.012952997039</v>
       </c>
       <c r="Y28" t="n">
-        <v>4144.771357899697</v>
+        <v>1370.277254385804</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1697.773797548872</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>1283.433582065768</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>862.403170019456</v>
       </c>
       <c r="G29" t="n">
-        <v>490.5039577458317</v>
+        <v>453.6748859122881</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6491,22 +6493,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T29" t="n">
-        <v>4526.90380932524</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6545,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L30" t="n">
-        <v>1210.13812587521</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.13812587521</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N30" t="n">
-        <v>1210.13812587521</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="O30" t="n">
-        <v>1914.095216421104</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P30" t="n">
         <v>2139.732893541123</v>
@@ -6595,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4105.773792315753</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="C31" t="n">
-        <v>3934.680419877469</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="D31" t="n">
-        <v>3775.185775200379</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="E31" t="n">
-        <v>3614.274960068698</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="F31" t="n">
-        <v>3449.64383417929</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="G31" t="n">
-        <v>3282.393443104833</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="H31" t="n">
         <v>3132.785987910289</v>
@@ -6643,28 +6645,28 @@
         <v>4662.18488453114</v>
       </c>
       <c r="R31" t="n">
-        <v>4662.18488453114</v>
+        <v>4576.912166206539</v>
       </c>
       <c r="S31" t="n">
-        <v>4662.18488453114</v>
+        <v>4390.520398086449</v>
       </c>
       <c r="T31" t="n">
-        <v>4662.18488453114</v>
+        <v>4150.971659063151</v>
       </c>
       <c r="U31" t="n">
-        <v>4662.18488453114</v>
+        <v>3868.173511609275</v>
       </c>
       <c r="V31" t="n">
-        <v>4662.18488453114</v>
+        <v>3594.287766548796</v>
       </c>
       <c r="W31" t="n">
-        <v>4662.18488453114</v>
+        <v>3315.218102057671</v>
       </c>
       <c r="X31" t="n">
-        <v>4518.209197321033</v>
+        <v>3132.785987910289</v>
       </c>
       <c r="Y31" t="n">
-        <v>4293.473498709797</v>
+        <v>3132.785987910289</v>
       </c>
     </row>
     <row r="32">
@@ -6783,19 +6785,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L33" t="n">
-        <v>754.331869609911</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M33" t="n">
-        <v>754.331869609911</v>
+        <v>936.2207783851894</v>
       </c>
       <c r="N33" t="n">
-        <v>754.331869609911</v>
+        <v>1809.878870496807</v>
       </c>
       <c r="O33" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P33" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4051.026465773143</v>
+        <v>423.8317148059963</v>
       </c>
       <c r="C34" t="n">
-        <v>4051.026465773143</v>
+        <v>252.7383423677128</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>4607.710358287496</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="U34" t="n">
-        <v>4324.912210833621</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="V34" t="n">
-        <v>4051.026465773143</v>
+        <v>1353.680646442718</v>
       </c>
       <c r="W34" t="n">
-        <v>4051.026465773143</v>
+        <v>1074.610981951593</v>
       </c>
       <c r="X34" t="n">
-        <v>4051.026465773143</v>
+        <v>836.267119811276</v>
       </c>
       <c r="Y34" t="n">
-        <v>4051.026465773143</v>
+        <v>611.5314212000407</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C35" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D35" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E35" t="n">
-        <v>1320.262653899312</v>
+        <v>873.3089913790386</v>
       </c>
       <c r="F35" t="n">
-        <v>899.2322418529996</v>
+        <v>588.3237444807176</v>
       </c>
       <c r="G35" t="n">
-        <v>490.5039577458317</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="H35" t="n">
         <v>179.5954603735497</v>
@@ -6935,10 +6937,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.4291691583772</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K35" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L35" t="n">
         <v>1598.180070079655</v>
@@ -6968,19 +6970,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7020,13 +7022,13 @@
         <v>93.2436976906228</v>
       </c>
       <c r="L36" t="n">
-        <v>754.331869609911</v>
+        <v>704.368908940975</v>
       </c>
       <c r="M36" t="n">
-        <v>874.0699105066985</v>
+        <v>704.368908940975</v>
       </c>
       <c r="N36" t="n">
-        <v>874.0699105066985</v>
+        <v>1578.027001052593</v>
       </c>
       <c r="O36" t="n">
         <v>1578.027001052593</v>
@@ -7069,10 +7071,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
         <v>93.2436976906228</v>
@@ -7123,22 +7125,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1622.642594311473</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U37" t="n">
-        <v>1402.830692891961</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V37" t="n">
-        <v>1128.944947831483</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W37" t="n">
-        <v>849.8752833403573</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X37" t="n">
-        <v>611.5314212000407</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y37" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="38">
@@ -7148,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2238.282892603803</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C38" t="n">
-        <v>1828.158301917073</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D38" t="n">
-        <v>1423.694372010133</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E38" t="n">
-        <v>1009.35415652703</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F38" t="n">
-        <v>588.3237444807176</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G38" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H38" t="n">
         <v>179.5954603735497</v>
@@ -7172,10 +7174,10 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J38" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K38" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L38" t="n">
         <v>1598.180070079655</v>
@@ -7199,25 +7201,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S38" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4439.978400477999</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U38" t="n">
-        <v>4183.681998679601</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V38" t="n">
-        <v>3833.844444016082</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W38" t="n">
-        <v>3450.08414315125</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X38" t="n">
-        <v>3049.440745320202</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y38" t="n">
-        <v>2648.504072268292</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="39">
@@ -7254,22 +7256,22 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K39" t="n">
-        <v>549.0499539559215</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L39" t="n">
-        <v>1210.13812587521</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="M39" t="n">
-        <v>1210.13812587521</v>
+        <v>562.1177108836107</v>
       </c>
       <c r="N39" t="n">
-        <v>1228.182536368609</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1228.182536368609</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7306,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>692.7936626747511</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="C40" t="n">
-        <v>521.7002902364676</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="D40" t="n">
-        <v>362.2056455593776</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="E40" t="n">
-        <v>201.2948304276971</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G40" t="n">
-        <v>93.2436976906228</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H40" t="n">
-        <v>93.2436976906228</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7354,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U40" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V40" t="n">
-        <v>1622.642594311473</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W40" t="n">
-        <v>1343.572929820347</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X40" t="n">
-        <v>1105.229067680031</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="Y40" t="n">
-        <v>880.4933690687955</v>
+        <v>798.0226983151792</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1394.184155965552</v>
+        <v>1735.400612045121</v>
       </c>
       <c r="C41" t="n">
-        <v>1269.039715716853</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="D41" t="n">
-        <v>864.5757858099139</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E41" t="n">
-        <v>864.5757858099139</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F41" t="n">
-        <v>864.5757858099139</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G41" t="n">
-        <v>455.8475017027461</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H41" t="n">
-        <v>144.9390043304641</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I41" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>312.7727131152915</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K41" t="n">
-        <v>850.932214224331</v>
+        <v>282.2592718266466</v>
       </c>
       <c r="L41" t="n">
-        <v>1563.523614036569</v>
+        <v>994.8506716388846</v>
       </c>
       <c r="M41" t="n">
-        <v>2288.540729424842</v>
+        <v>1771.169262630639</v>
       </c>
       <c r="N41" t="n">
-        <v>2608.201075581568</v>
+        <v>2524.350279269257</v>
       </c>
       <c r="O41" t="n">
-        <v>2608.201075581568</v>
+        <v>3167.981135686362</v>
       </c>
       <c r="P41" t="n">
-        <v>2608.201075581568</v>
+        <v>3697.137833605513</v>
       </c>
       <c r="Q41" t="n">
-        <v>2929.36208237686</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="R41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S41" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="T41" t="n">
-        <v>2929.36208237686</v>
+        <v>3937.860209861408</v>
       </c>
       <c r="U41" t="n">
-        <v>2929.36208237686</v>
+        <v>3680.799718120918</v>
       </c>
       <c r="V41" t="n">
-        <v>2579.524527713341</v>
+        <v>3330.962163457399</v>
       </c>
       <c r="W41" t="n">
-        <v>2195.764226848509</v>
+        <v>2947.201862592568</v>
       </c>
       <c r="X41" t="n">
-        <v>1795.120829017462</v>
+        <v>2546.55846476152</v>
       </c>
       <c r="Y41" t="n">
-        <v>1394.184155965552</v>
+        <v>2145.62179170961</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C42" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D42" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E42" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F42" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G42" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H42" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I42" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K42" t="n">
-        <v>707.2063554754692</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="L42" t="n">
-        <v>1030.214857425781</v>
+        <v>536.9833659871061</v>
       </c>
       <c r="M42" t="n">
-        <v>1030.214857425781</v>
+        <v>1379.960446681673</v>
       </c>
       <c r="N42" t="n">
-        <v>1755.231972814054</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O42" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P42" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R42" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S42" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T42" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U42" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V42" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W42" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X42" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y42" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>58.5872416475372</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="C43" t="n">
-        <v>58.5872416475372</v>
+        <v>3376.548888184099</v>
       </c>
       <c r="D43" t="n">
-        <v>58.5872416475372</v>
+        <v>3217.054243507009</v>
       </c>
       <c r="E43" t="n">
-        <v>58.5872416475372</v>
+        <v>3056.143428375328</v>
       </c>
       <c r="F43" t="n">
-        <v>58.5872416475372</v>
+        <v>2962.660481634195</v>
       </c>
       <c r="G43" t="n">
-        <v>58.5872416475372</v>
+        <v>2795.410090559738</v>
       </c>
       <c r="H43" t="n">
-        <v>58.5872416475372</v>
+        <v>2645.802635365194</v>
       </c>
       <c r="I43" t="n">
-        <v>58.5872416475372</v>
+        <v>2529.456589469521</v>
       </c>
       <c r="J43" t="n">
-        <v>72.66979105274773</v>
+        <v>2543.539138874731</v>
       </c>
       <c r="K43" t="n">
-        <v>227.2221187749857</v>
+        <v>2698.091466596969</v>
       </c>
       <c r="L43" t="n">
-        <v>487.1192190550462</v>
+        <v>2957.988566877029</v>
       </c>
       <c r="M43" t="n">
-        <v>776.3832754955395</v>
+        <v>3247.252623317523</v>
       </c>
       <c r="N43" t="n">
-        <v>1057.22205788979</v>
+        <v>3528.091405711773</v>
       </c>
       <c r="O43" t="n">
-        <v>1316.782668216264</v>
+        <v>3787.652016038247</v>
       </c>
       <c r="P43" t="n">
-        <v>1522.458108465876</v>
+        <v>3993.327456287859</v>
       </c>
       <c r="Q43" t="n">
-        <v>1587.986138268387</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R43" t="n">
-        <v>1587.986138268387</v>
+        <v>3973.58276776577</v>
       </c>
       <c r="S43" t="n">
-        <v>1587.986138268387</v>
+        <v>3787.19099964568</v>
       </c>
       <c r="T43" t="n">
-        <v>1348.437399245089</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="U43" t="n">
-        <v>1065.639251791214</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="V43" t="n">
-        <v>791.7535067307356</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="W43" t="n">
-        <v>512.6838422396099</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="X43" t="n">
-        <v>274.3399800992933</v>
+        <v>3547.642260622382</v>
       </c>
       <c r="Y43" t="n">
-        <v>58.5872416475372</v>
+        <v>3547.642260622382</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1904.592851712841</v>
+        <v>2156.905493807442</v>
       </c>
       <c r="C44" t="n">
-        <v>1494.468261026111</v>
+        <v>1746.780903120713</v>
       </c>
       <c r="D44" t="n">
-        <v>1494.468261026111</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E44" t="n">
-        <v>1080.128045543007</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F44" t="n">
-        <v>659.0976334966949</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G44" t="n">
-        <v>250.3693493895271</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H44" t="n">
-        <v>144.9390043304641</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I44" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>58.5872416475372</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K44" t="n">
-        <v>58.5872416475372</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L44" t="n">
-        <v>514.5359883879174</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M44" t="n">
-        <v>1239.55310377619</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N44" t="n">
-        <v>1964.570219164463</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O44" t="n">
-        <v>2608.201075581568</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P44" t="n">
-        <v>2608.201075581568</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="Q44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R44" t="n">
-        <v>2929.36208237686</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="S44" t="n">
-        <v>2794.081007170961</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T44" t="n">
-        <v>2571.87452311782</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U44" t="n">
-        <v>2314.81403137733</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="V44" t="n">
-        <v>2314.81403137733</v>
+        <v>3351.530372167811</v>
       </c>
       <c r="W44" t="n">
-        <v>2314.81403137733</v>
+        <v>2967.770071302979</v>
       </c>
       <c r="X44" t="n">
-        <v>2314.81403137733</v>
+        <v>2567.126673471932</v>
       </c>
       <c r="Y44" t="n">
-        <v>2314.81403137733</v>
+        <v>2567.126673471932</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>737.4180835340717</v>
+        <v>760.0079516083417</v>
       </c>
       <c r="C45" t="n">
-        <v>603.4230122830173</v>
+        <v>626.0128803572875</v>
       </c>
       <c r="D45" t="n">
-        <v>486.5258545024097</v>
+        <v>509.1157225766799</v>
       </c>
       <c r="E45" t="n">
-        <v>366.0330384947378</v>
+        <v>388.6229065690079</v>
       </c>
       <c r="F45" t="n">
-        <v>257.0731586772423</v>
+        <v>279.6630267515125</v>
       </c>
       <c r="G45" t="n">
-        <v>150.083045991581</v>
+        <v>172.6729140658512</v>
       </c>
       <c r="H45" t="n">
-        <v>79.33583302729703</v>
+        <v>101.9257011015672</v>
       </c>
       <c r="I45" t="n">
-        <v>58.5872416475372</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>251.4000992101705</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K45" t="n">
-        <v>707.2063554754692</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="L45" t="n">
-        <v>1368.294527394758</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="M45" t="n">
-        <v>1368.294527394758</v>
+        <v>550.0511229147953</v>
       </c>
       <c r="N45" t="n">
-        <v>1368.294527394758</v>
+        <v>1423.709215026413</v>
       </c>
       <c r="O45" t="n">
-        <v>1368.294527394758</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="P45" t="n">
-        <v>1755.231972814054</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="Q45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="R45" t="n">
-        <v>2105.076437498037</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="S45" t="n">
-        <v>1997.086427612346</v>
+        <v>2019.676295686616</v>
       </c>
       <c r="T45" t="n">
-        <v>1837.744563799354</v>
+        <v>1860.334431873625</v>
       </c>
       <c r="U45" t="n">
-        <v>1640.393752937573</v>
+        <v>1662.983621011843</v>
       </c>
       <c r="V45" t="n">
-        <v>1426.682225930607</v>
+        <v>1449.272094004877</v>
       </c>
       <c r="W45" t="n">
-        <v>1213.449057666935</v>
+        <v>1236.038925741206</v>
       </c>
       <c r="X45" t="n">
-        <v>1037.123075805828</v>
+        <v>1059.712943880098</v>
       </c>
       <c r="Y45" t="n">
-        <v>877.7211161696583</v>
+        <v>900.3109842439284</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2278.582815231264</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C46" t="n">
-        <v>2107.48944279298</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D46" t="n">
-        <v>1947.99479811589</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E46" t="n">
-        <v>1787.08398298421</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F46" t="n">
-        <v>1622.452857094801</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G46" t="n">
-        <v>1455.202466020344</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H46" t="n">
-        <v>1399.96318575601</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I46" t="n">
-        <v>1399.96318575601</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J46" t="n">
-        <v>1414.045735161221</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K46" t="n">
-        <v>1568.598062883459</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L46" t="n">
-        <v>1828.495163163519</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M46" t="n">
-        <v>2117.759219604013</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N46" t="n">
-        <v>2398.598001998263</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O46" t="n">
-        <v>2658.158612324737</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P46" t="n">
-        <v>2863.834052574349</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q46" t="n">
-        <v>2929.36208237686</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R46" t="n">
-        <v>2929.36208237686</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S46" t="n">
-        <v>2929.36208237686</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>2929.36208237686</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U46" t="n">
-        <v>2929.36208237686</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V46" t="n">
-        <v>2929.36208237686</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W46" t="n">
-        <v>2929.36208237686</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X46" t="n">
-        <v>2691.018220236544</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y46" t="n">
-        <v>2466.282521625308</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
   </sheetData>
@@ -7982,25 +7984,25 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M2" t="n">
-        <v>751.6833196181582</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>825.2528113508343</v>
+        <v>552.9160747585987</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N3" t="n">
-        <v>458.6703921507823</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>334.1030092285466</v>
       </c>
       <c r="P3" t="n">
-        <v>621.6393243851574</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,31 +8215,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>154.3064439393123</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L5" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M5" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N5" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>146.0867917319955</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,25 +8294,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>587.0713442545288</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O6" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q6" t="n">
         <v>56.69261850483872</v>
@@ -8450,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>245.0303681328024</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8459,22 +8461,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M8" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N8" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>287.6689177404308</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8529,25 +8531,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>363.1447578597364</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>789.9048043326325</v>
+        <v>551.1310269936541</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>89.13638967321712</v>
+        <v>569.9983983158803</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N11" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O11" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>117.8531087696411</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,7 +8768,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
@@ -8775,13 +8777,13 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>789.9048043326325</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>785.533913987965</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O12" t="n">
-        <v>660.231241700964</v>
+        <v>196.176898678467</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8924,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
         <v>89.13638967321712</v>
@@ -8933,22 +8935,22 @@
         <v>815.2746908024792</v>
       </c>
       <c r="M14" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>158.8194175469794</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>360.7991553409466</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9012,16 +9014,16 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>681.3167988054204</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>785.533913987965</v>
+        <v>841.9067396726143</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
         <v>56.69261850483872</v>
@@ -9182,10 +9184,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681334</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,25 +9245,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>57.56428373841742</v>
+        <v>781.8318064390068</v>
       </c>
       <c r="N18" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O18" t="n">
-        <v>221.2852841874855</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9477,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K21" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L21" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N21" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O21" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P21" t="n">
-        <v>445.1055394667395</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9714,25 +9716,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K24" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>57.751479</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P24" t="n">
-        <v>192.6850546812701</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
@@ -9951,7 +9953,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
@@ -9960,19 +9962,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M27" t="n">
-        <v>694.1034569629279</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N27" t="n">
         <v>935.6763147186165</v>
       </c>
       <c r="O27" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10191,22 +10193,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>53.19339339374999</v>
+        <v>601.0963663600584</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>282.1764805785802</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10431,22 +10433,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O33" t="n">
-        <v>536.3885161299984</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P33" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10583,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
         <v>632.7318453389136</v>
@@ -10668,16 +10670,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>673.412716993023</v>
       </c>
       <c r="M36" t="n">
-        <v>178.5117997957786</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>621.6393243851574</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
         <v>632.7318453389136</v>
@@ -10902,25 +10904,25 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K39" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747688</v>
       </c>
       <c r="N39" t="n">
-        <v>71.42007065981008</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389136</v>
+        <v>292.2496847286102</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M41" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N41" t="n">
-        <v>415.8015292987669</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,28 +11138,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>382.3857379020729</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>785.533913987965</v>
+        <v>97.38406848944746</v>
       </c>
       <c r="O42" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
         <v>59.00019910540541</v>
@@ -11294,28 +11296,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>556.0396876995925</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M44" t="n">
-        <v>825.6307450512605</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N44" t="n">
-        <v>825.2528113508343</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O44" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>396.2872824041708</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11373,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L45" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>57.56428373841742</v>
+        <v>531.1743980747689</v>
       </c>
       <c r="N45" t="n">
-        <v>53.19339339374999</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O45" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
-        <v>445.1055394667393</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22547,25 +22549,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>360.0242673938929</v>
       </c>
       <c r="X2" t="n">
-        <v>58.17699543892059</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22702,16 +22704,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>171.8394155455415</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22753,25 +22755,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>92.44965918848808</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22796,13 +22798,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22832,25 +22834,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>113.7134150757632</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>73.09255865588568</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22939,16 +22941,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>63.75839232406477</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
@@ -22987,13 +22989,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -23005,7 +23007,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23039,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>39.50903991658682</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23069,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>17.68384029450324</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
         <v>219.9844192126098</v>
@@ -23078,16 +23080,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23224,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>208.6070786176239</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23261,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>40.38812601968544</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23318,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>73.09255865588568</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23425,7 +23427,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
         <v>165.577887163712</v>
@@ -23434,7 +23436,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23476,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>97.55960706132291</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y13" t="n">
         <v>222.4883416251229</v>
@@ -23504,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23552,7 +23554,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>300.5174714090148</v>
+        <v>26.14408031811303</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23653,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>70.43669735679175</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.35263051300453</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23741,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>37.84312462897441</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23792,13 +23794,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>45.55681957367977</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23890,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.200273584690223</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23938,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>137.4342356413303</v>
       </c>
     </row>
     <row r="20">
@@ -23981,10 +23983,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>49.19646844041357</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24130,16 +24132,16 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>4.8745592198064</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
         <v>148.1113806425979</v>
@@ -24184,10 +24186,10 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>221.5920803845231</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24221,10 +24223,10 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24257,7 +24259,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24272,7 +24274,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>36.36515802722602</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24373,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>157.0045112004823</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>134.9699070214199</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24452,13 +24454,13 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24497,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>187.9942390719858</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>147.215119401999</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24680,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24695,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>36.46078111520814</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>222.4997066824603</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24835,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>93.42449318090749</v>
+        <v>55.35263051300575</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>30.49021016014719</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
         <v>184.5278504388888</v>
@@ -25129,19 +25131,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>4.874559219806031</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25163,13 +25165,13 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>134.6847134965114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25208,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
         <v>159.3017069803637</v>
@@ -25363,10 +25365,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U37" t="n">
-        <v>62.35638357402024</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25394,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25406,7 +25408,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25439,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>42.06483528720082</v>
       </c>
       <c r="U38" t="n">
-        <v>0.756449042671278</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25546,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>53.42716423559462</v>
       </c>
       <c r="F40" t="n">
-        <v>56.01419322081109</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>237.1532516330649</v>
@@ -25606,16 +25608,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25625,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>282.1303489336511</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25679,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>100.1990957459376</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25786,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>70.43669735679232</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>8.893130557884405</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>376.4171151178283</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>203.4233707900868</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25919,16 +25921,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H46" t="n">
-        <v>93.42449318090706</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I46" t="n">
         <v>115.1825854367171</v>
@@ -26074,22 +26076,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>579825.0808746152</v>
+        <v>495249.0840942482</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>579825.0808746158</v>
+        <v>693399.1440019248</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>579825.0808746155</v>
+        <v>693399.1440019247</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579825.0808746157</v>
+        <v>693399.1440019248</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579825.0808746155</v>
+        <v>693399.1440019247</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754065.7853119021</v>
+        <v>754065.7853119023</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754065.7853119023</v>
+        <v>754065.7853119019</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754065.7853119021</v>
+        <v>754065.7853119022</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754065.7853119022</v>
+        <v>754065.7853119021</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>754065.7853119021</v>
+        <v>754065.7853119022</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>754065.7853119023</v>
+        <v>754065.7853119022</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754065.7853119021</v>
+        <v>754065.7853119022</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579825.0808746157</v>
+        <v>693399.1440019245</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579825.0808746156</v>
+        <v>693399.1440019249</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>245011.2688821826</v>
+        <v>209284.9156047157</v>
       </c>
       <c r="C2" t="n">
-        <v>245011.2688821827</v>
+        <v>292986.9033045658</v>
       </c>
       <c r="D2" t="n">
-        <v>245011.2688821826</v>
+        <v>292986.9033045657</v>
       </c>
       <c r="E2" t="n">
-        <v>245011.2688821826</v>
+        <v>292986.9033045658</v>
       </c>
       <c r="F2" t="n">
-        <v>245011.2688821826</v>
+        <v>292986.9033045658</v>
       </c>
       <c r="G2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886032</v>
       </c>
       <c r="H2" t="n">
         <v>318613.5342886032</v>
@@ -26335,25 +26337,25 @@
         <v>318613.5342886032</v>
       </c>
       <c r="J2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="K2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="L2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="M2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="O2" t="n">
-        <v>245011.2688821827</v>
+        <v>292986.9033045657</v>
       </c>
       <c r="P2" t="n">
-        <v>245011.2688821827</v>
+        <v>292986.9033045657</v>
       </c>
     </row>
     <row r="3">
@@ -26363,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>245424.1522830951</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>159160.8707514664</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26378,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118735.1844321139</v>
+        <v>41340.88454290959</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>191612.5031703528</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126792.4227070338</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26415,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45788.35845401311</v>
+        <v>39061.35498003941</v>
       </c>
       <c r="C4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="D4" t="n">
-        <v>45788.3584540131</v>
+        <v>54821.80938920874</v>
       </c>
       <c r="E4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920874</v>
       </c>
       <c r="F4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="I4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="J4" t="n">
         <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
-        <v>59647.11115782197</v>
+        <v>59647.11115782198</v>
       </c>
       <c r="L4" t="n">
         <v>59647.11115782197</v>
@@ -26454,10 +26456,10 @@
         <v>59647.11115782197</v>
       </c>
       <c r="O4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="P4" t="n">
-        <v>45788.35845401311</v>
+        <v>54821.80938920874</v>
       </c>
     </row>
     <row r="5">
@@ -26467,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>78153.90365212827</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="D5" t="n">
-        <v>78153.90365212827</v>
+        <v>95322.20338857363</v>
       </c>
       <c r="E5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="F5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26506,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
       <c r="P5" t="n">
-        <v>44526.30365212827</v>
+        <v>61694.60338857363</v>
       </c>
     </row>
     <row r="6">
@@ -26519,22 +26521,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-124355.1455070539</v>
+        <v>-70101.01434693535</v>
       </c>
       <c r="C6" t="n">
-        <v>121069.0067760414</v>
+        <v>-16317.98022468295</v>
       </c>
       <c r="D6" t="n">
-        <v>121069.0067760412</v>
+        <v>142842.8905267833</v>
       </c>
       <c r="E6" t="n">
-        <v>154696.6067760413</v>
+        <v>176470.4905267834</v>
       </c>
       <c r="F6" t="n">
-        <v>154696.6067760412</v>
+        <v>176470.4905267834</v>
       </c>
       <c r="G6" t="n">
-        <v>69366.02845379389</v>
+        <v>146760.3283429983</v>
       </c>
       <c r="H6" t="n">
         <v>188101.212885908</v>
@@ -26543,25 +26545,25 @@
         <v>188101.2128859079</v>
       </c>
       <c r="J6" t="n">
-        <v>-3511.290284444869</v>
+        <v>51506.41208001284</v>
       </c>
       <c r="K6" t="n">
-        <v>188101.2128859079</v>
+        <v>61308.7901788741</v>
       </c>
       <c r="L6" t="n">
-        <v>188101.2128859079</v>
+        <v>188101.212885908</v>
       </c>
       <c r="M6" t="n">
         <v>188101.2128859079</v>
       </c>
       <c r="N6" t="n">
-        <v>188101.212885908</v>
+        <v>188101.2128859079</v>
       </c>
       <c r="O6" t="n">
-        <v>154696.6067760413</v>
+        <v>176470.4905267833</v>
       </c>
       <c r="P6" t="n">
-        <v>154696.6067760413</v>
+        <v>176470.4905267833</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="D4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="E4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="F4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26826,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
       <c r="P4" t="n">
-        <v>732.340520594215</v>
+        <v>1014.713871522593</v>
       </c>
     </row>
   </sheetData>
@@ -27009,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>492.6503011525669</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27024,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525669</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27255,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>732.340520594215</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>492.6503011525669</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27270,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>433.2057005385699</v>
+        <v>150.8323496101924</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34702,25 +34704,25 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M2" t="n">
-        <v>658.3930951611127</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>732.340520594215</v>
+        <v>460.0037840019794</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N3" t="n">
-        <v>405.4769987570323</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>276.3515302285466</v>
       </c>
       <c r="P3" t="n">
-        <v>567.3796893823536</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>65.17005426609514</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L5" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M5" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N5" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>52.89701610621237</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35014,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>529.5070605161113</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O6" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -35170,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>171.7067767994944</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35179,22 +35181,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M8" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N8" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>194.0195544595466</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35251,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>307.0302340488873</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>732.340520594215</v>
+        <v>493.5667432552367</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>480.8620086426632</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N11" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O11" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>24.20374548875697</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>732.340520594215</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>732.340520594215</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O12" t="n">
-        <v>602.479762700964</v>
+        <v>138.425419678467</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35644,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -35653,22 +35655,22 @@
         <v>719.7892927396343</v>
       </c>
       <c r="M14" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>65.17005426609525</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>270.7653509417946</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,16 +35734,16 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>623.7525150670029</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>732.340520594215</v>
+        <v>788.7133462788644</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35902,10 +35904,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689814</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,25 +35965,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>724.2675227005893</v>
       </c>
       <c r="N18" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O18" t="n">
-        <v>163.5338051874855</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P21" t="n">
-        <v>390.8459044639358</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36434,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P24" t="n">
-        <v>138.4254196784663</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36671,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,19 +36682,19 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>636.5391732245105</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N27" t="n">
         <v>882.4829213248665</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,22 +36913,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="O30" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>227.9168455757764</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37151,22 +37153,22 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O33" t="n">
-        <v>478.6370371299984</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P33" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37303,7 +37305,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
         <v>543.5954556656965</v>
@@ -37388,16 +37390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>667.7658302215033</v>
+        <v>617.2981931821739</v>
       </c>
       <c r="M36" t="n">
-        <v>120.9475160573612</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O36" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>567.3796893823536</v>
@@ -37540,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
         <v>543.5954556656965</v>
@@ -37622,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N39" t="n">
-        <v>18.22667726606008</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>543.5954556656965</v>
+        <v>203.1132950553931</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M41" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N41" t="n">
-        <v>322.8892385421476</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q41" t="n">
         <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>326.2712140912238</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>732.340520594215</v>
+        <v>44.19067509569746</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>460.5542896367477</v>
+        <v>719.7892927396343</v>
       </c>
       <c r="M44" t="n">
-        <v>732.340520594215</v>
+        <v>784.1601929209636</v>
       </c>
       <c r="N44" t="n">
-        <v>732.340520594215</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O44" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>302.6379191232867</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>473.6101143363514</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
-        <v>390.8459044639355</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_4_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>936726.3068901759</v>
+        <v>934109.5124600242</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5435918.088148479</v>
+        <v>5435918.088148477</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3904565.274227926</v>
+        <v>3904565.274227927</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8168856.833298386</v>
+        <v>8168856.833298387</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>100.6327191142682</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,22 +709,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>19.8984304622902</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>183.8293086577263</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="5">
@@ -913,10 +913,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>306.8301392002974</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>16.5801998681742</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
@@ -1119,10 +1119,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>45.97920513951075</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,25 +1183,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>95.35487503215364</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U10" t="n">
         <v>279.9701659793371</v>
@@ -1356,10 +1356,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,13 +1429,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>306.8301392002974</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>236.5646190807839</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="14">
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>374.8287405270701</v>
       </c>
       <c r="C14" t="n">
         <v>406.0233447798626</v>
@@ -1624,10 +1624,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>320.1950987987711</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>396.9273063213908</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="17">
@@ -1855,10 +1855,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1897,7 +1897,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
@@ -1909,7 +1909,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>174.1372571702758</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,25 +2001,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2055,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>85.05410598379265</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="20">
@@ -2086,7 +2086,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E20" t="n">
         <v>410.1968133282722</v>
@@ -2098,7 +2098,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.73179601342657</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>153.0251390105127</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2292,10 +2292,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
@@ -2335,7 +2335,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>170.7879507721958</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>254.489886823085</v>
+        <v>251.4066896505621</v>
       </c>
       <c r="V23" t="n">
         <v>346.3391791168841</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V25" t="n">
-        <v>136.1769805884533</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2563,10 +2563,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>384.5327953590509</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>404.6410012660961</v>
@@ -2611,13 +2611,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
-        <v>191.9284587841973</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
         <v>396.636963852737</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2809,7 +2809,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
-        <v>271.338631283351</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I29" t="n">
         <v>85.48824505609757</v>
@@ -2854,10 +2854,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>379.9226978561831</v>
+        <v>334.0755358138493</v>
       </c>
       <c r="X29" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>396.9273063213908</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>237.1532516330649</v>
@@ -3015,10 +3015,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>180.6077930059077</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3040,16 +3040,16 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>228.8258688538634</v>
       </c>
       <c r="V32" t="n">
         <v>346.3391791168841</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3240,13 +3240,13 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
@@ -3255,7 +3255,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="35">
@@ -3277,7 +3277,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
         <v>404.6410012660961</v>
@@ -3319,7 +3319,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>85.29970571609803</v>
       </c>
       <c r="U35" t="n">
         <v>254.489886823085</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>228.2601210751805</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3492,7 +3492,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
         <v>410.1968133282722</v>
@@ -3520,10 +3520,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,10 +3556,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>177.9195839254089</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>205.293418382671</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3669,19 +3669,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>105.8745427447691</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>79.57431148122086</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,25 +3708,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>119.7853234666721</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3808,7 +3808,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>370.7832260032779</v>
       </c>
     </row>
     <row r="42">
@@ -3900,25 +3900,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>92.54811727372233</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="44">
@@ -3982,10 +3982,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>24.00217549004173</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>194.1126270951323</v>
       </c>
       <c r="F44" t="n">
         <v>416.8201079258493</v>
@@ -3997,7 +3997,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,19 +4033,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4137,13 +4137,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>136.9384076498743</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>279.9701659793371</v>
@@ -4200,10 +4200,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>213.5952110672386</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>856.3536062232714</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="C2" t="n">
-        <v>446.2290155365415</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
@@ -4336,46 +4336,46 @@
         <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.011766457887</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1530.854701124212</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="W2" t="n">
-        <v>2068.154856770718</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="X2" t="n">
-        <v>1667.511458939671</v>
+        <v>1346.075159870194</v>
       </c>
       <c r="Y2" t="n">
-        <v>1266.574785887761</v>
+        <v>945.1384868182839</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>234.5779431922353</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585605</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>1268.263812524886</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1268.263812524886</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4448,13 +4448,13 @@
         <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U4" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V4" t="n">
-        <v>1288.365834796576</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W4" t="n">
-        <v>1102.679664435236</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3358022949199</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y4" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2537.124802007269</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C5" t="n">
-        <v>2127.000211320539</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D5" t="n">
-        <v>1722.5362814136</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E5" t="n">
-        <v>1308.196065930496</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F5" t="n">
-        <v>887.1656538841841</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G5" t="n">
-        <v>478.4373697770162</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H5" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I5" t="n">
         <v>81.1771097218074</v>
@@ -4582,10 +4582,10 @@
         <v>3115.613089741211</v>
       </c>
       <c r="O5" t="n">
-        <v>3167.981135686362</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P5" t="n">
-        <v>3697.137833605513</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q5" t="n">
         <v>4018.298840400805</v>
@@ -4594,25 +4594,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S5" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T5" t="n">
-        <v>4058.85548609037</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U5" t="n">
-        <v>4058.85548609037</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="V5" t="n">
-        <v>4058.85548609037</v>
+        <v>3351.530372167811</v>
       </c>
       <c r="W5" t="n">
-        <v>3748.926052554716</v>
+        <v>2967.770071302979</v>
       </c>
       <c r="X5" t="n">
-        <v>3348.282654723669</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2947.345981671759</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="6">
@@ -4655,19 +4655,19 @@
         <v>729.7962235497394</v>
       </c>
       <c r="M6" t="n">
-        <v>1254.00821346069</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="N6" t="n">
-        <v>2127.666305572307</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="O6" t="n">
-        <v>2127.666305572307</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P6" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q6" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R6" t="n">
         <v>2127.666305572307</v>
@@ -4749,25 +4749,25 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R7" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S7" t="n">
-        <v>1338.911519897968</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T7" t="n">
-        <v>1099.36278087467</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U7" t="n">
-        <v>816.5646334207938</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V7" t="n">
-        <v>542.6788883603158</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W7" t="n">
-        <v>263.6092238691901</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X7" t="n">
-        <v>81.1771097218074</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y7" t="n">
         <v>81.1771097218074</v>
@@ -4780,49 +4780,49 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2497.216680879404</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C8" t="n">
-        <v>2087.092090192674</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D8" t="n">
-        <v>1682.628160285734</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E8" t="n">
-        <v>1268.287944802631</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F8" t="n">
-        <v>847.2575327563186</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G8" t="n">
-        <v>438.5292486491508</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H8" t="n">
-        <v>127.6207512768688</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I8" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J8" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K8" t="n">
-        <v>619.3366108308469</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L8" t="n">
-        <v>1331.928010643085</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M8" t="n">
-        <v>2108.246601634839</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N8" t="n">
-        <v>2861.427618273457</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O8" t="n">
-        <v>3505.058474690562</v>
+        <v>3759.243946158316</v>
       </c>
       <c r="P8" t="n">
-        <v>3697.137833605513</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q8" t="n">
         <v>4018.298840400805</v>
@@ -4831,25 +4831,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S8" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T8" t="n">
-        <v>4058.85548609037</v>
+        <v>3701.36792683133</v>
       </c>
       <c r="U8" t="n">
-        <v>4058.85548609037</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V8" t="n">
-        <v>3709.017931426851</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="W8" t="n">
-        <v>3709.017931426851</v>
+        <v>3347.989379502806</v>
       </c>
       <c r="X8" t="n">
-        <v>3308.374533595803</v>
+        <v>2947.345981671759</v>
       </c>
       <c r="Y8" t="n">
-        <v>2907.437860543893</v>
+        <v>2947.345981671759</v>
       </c>
     </row>
     <row r="9">
@@ -4892,16 +4892,16 @@
         <v>935.0781392037288</v>
       </c>
       <c r="M9" t="n">
-        <v>1423.709215026413</v>
+        <v>935.0781392037288</v>
       </c>
       <c r="N9" t="n">
-        <v>1423.709215026413</v>
+        <v>935.0781392037288</v>
       </c>
       <c r="O9" t="n">
-        <v>2127.666305572307</v>
+        <v>1216.115948399794</v>
       </c>
       <c r="P9" t="n">
-        <v>2127.666305572307</v>
+        <v>1777.821840888324</v>
       </c>
       <c r="Q9" t="n">
         <v>2127.666305572307</v>
@@ -4986,28 +4986,28 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R10" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S10" t="n">
-        <v>1338.911519897968</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T10" t="n">
-        <v>1099.36278087467</v>
+        <v>1567.709933872883</v>
       </c>
       <c r="U10" t="n">
-        <v>816.5646334207938</v>
+        <v>1284.911786419008</v>
       </c>
       <c r="V10" t="n">
-        <v>542.6788883603158</v>
+        <v>1011.026041358529</v>
       </c>
       <c r="W10" t="n">
-        <v>263.6092238691901</v>
+        <v>731.9563768674037</v>
       </c>
       <c r="X10" t="n">
-        <v>81.1771097218074</v>
+        <v>493.6125147270871</v>
       </c>
       <c r="Y10" t="n">
-        <v>81.1771097218074</v>
+        <v>268.8768161158518</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2537.124802007269</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C11" t="n">
-        <v>2127.000211320539</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D11" t="n">
-        <v>1722.5362814136</v>
+        <v>1325.276021358391</v>
       </c>
       <c r="E11" t="n">
-        <v>1308.196065930496</v>
+        <v>910.9358058752877</v>
       </c>
       <c r="F11" t="n">
-        <v>887.1656538841841</v>
+        <v>489.9053938289752</v>
       </c>
       <c r="G11" t="n">
-        <v>478.4373697770162</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H11" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I11" t="n">
         <v>81.1771097218074</v>
@@ -5044,22 +5044,22 @@
         <v>335.3625811895617</v>
       </c>
       <c r="K11" t="n">
-        <v>811.4159697457983</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L11" t="n">
-        <v>1524.007369558036</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M11" t="n">
-        <v>2300.32596054979</v>
+        <v>2092.330269425931</v>
       </c>
       <c r="N11" t="n">
-        <v>3053.506977188408</v>
+        <v>2845.511286064549</v>
       </c>
       <c r="O11" t="n">
-        <v>3697.137833605513</v>
+        <v>3489.142142481654</v>
       </c>
       <c r="P11" t="n">
-        <v>3697.137833605513</v>
+        <v>4018.298840400805</v>
       </c>
       <c r="Q11" t="n">
         <v>4018.298840400805</v>
@@ -5068,25 +5068,25 @@
         <v>4058.85548609037</v>
       </c>
       <c r="S11" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T11" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U11" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="V11" t="n">
-        <v>4058.85548609037</v>
+        <v>3573.736856220952</v>
       </c>
       <c r="W11" t="n">
-        <v>3748.926052554716</v>
+        <v>3189.97655535612</v>
       </c>
       <c r="X11" t="n">
-        <v>3348.282654723669</v>
+        <v>2951.02239466846</v>
       </c>
       <c r="Y11" t="n">
-        <v>2947.345981671759</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="12">
@@ -5123,16 +5123,16 @@
         <v>273.9899672844406</v>
       </c>
       <c r="K12" t="n">
-        <v>273.9899672844406</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L12" t="n">
-        <v>273.9899672844406</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="M12" t="n">
-        <v>1116.967047979007</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="N12" t="n">
-        <v>1990.625140090625</v>
+        <v>2127.666305572307</v>
       </c>
       <c r="O12" t="n">
         <v>2127.666305572307</v>
@@ -5223,25 +5223,25 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R13" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S13" t="n">
-        <v>1338.911519897968</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T13" t="n">
-        <v>1099.36278087467</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U13" t="n">
-        <v>816.5646334207938</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V13" t="n">
-        <v>542.6788883603158</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W13" t="n">
-        <v>263.6092238691901</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X13" t="n">
-        <v>81.1771097218074</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y13" t="n">
         <v>81.1771097218074</v>
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2139.86454195206</v>
+        <v>2537.124802007269</v>
       </c>
       <c r="C14" t="n">
-        <v>1729.739951265331</v>
+        <v>2127.000211320539</v>
       </c>
       <c r="D14" t="n">
-        <v>1325.276021358391</v>
+        <v>1722.5362814136</v>
       </c>
       <c r="E14" t="n">
-        <v>910.9358058752877</v>
+        <v>1308.196065930496</v>
       </c>
       <c r="F14" t="n">
-        <v>489.9053938289752</v>
+        <v>887.1656538841841</v>
       </c>
       <c r="G14" t="n">
-        <v>81.1771097218074</v>
+        <v>478.4373697770162</v>
       </c>
       <c r="H14" t="n">
-        <v>81.1771097218074</v>
+        <v>167.5288724047342</v>
       </c>
       <c r="I14" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J14" t="n">
-        <v>335.3625811895617</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K14" t="n">
-        <v>335.3625811895617</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L14" t="n">
-        <v>1047.9539810018</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M14" t="n">
-        <v>1824.272571993554</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N14" t="n">
-        <v>2577.453588632172</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O14" t="n">
-        <v>3221.084445049277</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P14" t="n">
-        <v>3750.241142968428</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q14" t="n">
-        <v>4018.298840400805</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="R14" t="n">
         <v>4058.85548609037</v>
       </c>
       <c r="S14" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="T14" t="n">
-        <v>4058.85548609037</v>
+        <v>3923.574410884471</v>
       </c>
       <c r="U14" t="n">
-        <v>4058.85548609037</v>
+        <v>3666.513919143981</v>
       </c>
       <c r="V14" t="n">
-        <v>3735.426093364339</v>
+        <v>3316.676364480462</v>
       </c>
       <c r="W14" t="n">
-        <v>3351.665792499507</v>
+        <v>3316.676364480462</v>
       </c>
       <c r="X14" t="n">
-        <v>2951.02239466846</v>
+        <v>3316.676364480462</v>
       </c>
       <c r="Y14" t="n">
-        <v>2550.08572161655</v>
+        <v>2915.739691428552</v>
       </c>
     </row>
     <row r="15">
@@ -5369,16 +5369,16 @@
         <v>81.1771097218074</v>
       </c>
       <c r="N15" t="n">
-        <v>862.0033225378832</v>
+        <v>954.8352018334252</v>
       </c>
       <c r="O15" t="n">
-        <v>1565.960413083777</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P15" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q15" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R15" t="n">
         <v>2127.666305572307</v>
@@ -5460,25 +5460,25 @@
         <v>1610.576006342658</v>
       </c>
       <c r="R16" t="n">
-        <v>1525.303288018057</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S16" t="n">
-        <v>1338.911519897968</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T16" t="n">
-        <v>1099.36278087467</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U16" t="n">
-        <v>816.5646334207938</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V16" t="n">
-        <v>542.6788883603158</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W16" t="n">
-        <v>263.6092238691901</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X16" t="n">
-        <v>81.1771097218074</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y16" t="n">
         <v>81.1771097218074</v>
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F17" t="n">
-        <v>490.5039577458317</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4269.84331758475</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3920.005762921231</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3536.245462056399</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="18">
@@ -5594,16 +5594,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>549.0499539559215</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>549.0499539559215</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M18" t="n">
-        <v>1266.074801429505</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="N18" t="n">
         <v>2139.732893541123</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1066.231502096085</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C19" t="n">
-        <v>895.138129657802</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D19" t="n">
-        <v>735.6434849807119</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E19" t="n">
-        <v>574.7326698490315</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F19" t="n">
-        <v>410.1015439596227</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8511528851661</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
         <v>93.2436976906228</v>
@@ -5703,22 +5703,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U19" t="n">
-        <v>1339.844446857597</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V19" t="n">
-        <v>1339.844446857597</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W19" t="n">
-        <v>1339.844446857597</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X19" t="n">
-        <v>1339.844446857597</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y19" t="n">
-        <v>1253.93120849013</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2151.931129920876</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C20" t="n">
-        <v>1741.806539234146</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D20" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E20" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F20" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G20" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H20" t="n">
         <v>93.2436976906228</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4576.597211790305</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4354.390727737164</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4097.330235996674</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3747.492681333154</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3363.732380468323</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2963.088982637275</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2562.152309585365</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,25 +5831,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1964.656875926373</v>
       </c>
       <c r="Q21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3458.450207833939</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3287.356835395656</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4662.18488453114</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4662.18488453114</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4388.299139470661</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4109.229474979536</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>3870.885612839219</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>3646.149914227984</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2151.931129920876</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C23" t="n">
-        <v>1741.806539234146</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D23" t="n">
-        <v>1337.342609327206</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E23" t="n">
-        <v>923.0023938441032</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F23" t="n">
-        <v>501.9719817977906</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H23" t="n">
         <v>93.2436976906228</v>
@@ -5989,7 +5989,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J23" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K23" t="n">
         <v>885.5886702674165</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4354.390727737164</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="U23" t="n">
-        <v>4097.330235996674</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V23" t="n">
-        <v>3747.492681333154</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W23" t="n">
-        <v>3363.732380468323</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X23" t="n">
-        <v>2963.088982637275</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y23" t="n">
-        <v>2562.152309585365</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="24">
@@ -6068,28 +6068,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L24" t="n">
-        <v>754.331869609911</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M24" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N24" t="n">
-        <v>1597.308950304478</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q24" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R24" t="n">
         <v>2139.732893541123</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F25" t="n">
-        <v>3565.989880074963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G25" t="n">
-        <v>3398.739489000507</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H25" t="n">
-        <v>3249.132033805963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I25" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J25" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K25" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L25" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M25" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N25" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O25" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P25" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q25" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R25" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S25" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T25" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U25" t="n">
-        <v>3868.173511609275</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V25" t="n">
-        <v>3730.621005964372</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W25" t="n">
-        <v>3730.621005964372</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X25" t="n">
-        <v>3730.621005964372</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y25" t="n">
-        <v>3730.621005964372</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2549.191389976085</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C26" t="n">
-        <v>2139.066799289355</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D26" t="n">
-        <v>1734.602869382415</v>
+        <v>1287.649206862142</v>
       </c>
       <c r="E26" t="n">
-        <v>1320.262653899312</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F26" t="n">
         <v>899.2322418529996</v>
@@ -6226,7 +6226,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J26" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K26" t="n">
         <v>885.5886702674165</v>
@@ -6259,19 +6259,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U26" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W26" t="n">
-        <v>3760.992640523532</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X26" t="n">
-        <v>3360.349242692484</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y26" t="n">
-        <v>2959.412569640574</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="27">
@@ -6308,19 +6308,19 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="M27" t="n">
-        <v>562.1177108836107</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="N27" t="n">
-        <v>1435.775802995229</v>
+        <v>1210.13812587521</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1914.095216421104</v>
       </c>
       <c r="P27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C29" t="n">
-        <v>2102.237727455811</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D29" t="n">
-        <v>1697.773797548872</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E29" t="n">
-        <v>1283.433582065768</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F29" t="n">
-        <v>862.403170019456</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G29" t="n">
-        <v>453.6748859122881</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H29" t="n">
         <v>179.5954603735497</v>
@@ -6502,13 +6502,13 @@
         <v>3697.79927886809</v>
       </c>
       <c r="W29" t="n">
-        <v>3314.038978003258</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="X29" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y29" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L30" t="n">
-        <v>754.331869609911</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M30" t="n">
-        <v>1597.308950304478</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N30" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J31" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K31" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L31" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M31" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N31" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O31" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P31" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q31" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R31" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S31" t="n">
-        <v>4390.520398086449</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>4150.971659063151</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>3868.173511609275</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>3594.287766548796</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>3315.218102057671</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>3132.785987910289</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2102.237727455811</v>
+        <v>2128.160977929772</v>
       </c>
       <c r="C32" t="n">
-        <v>1692.113136769081</v>
+        <v>1718.036387243042</v>
       </c>
       <c r="D32" t="n">
-        <v>1287.649206862142</v>
+        <v>1313.572457336103</v>
       </c>
       <c r="E32" t="n">
-        <v>873.3089913790386</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="F32" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G32" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H32" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I32" t="n">
         <v>93.2436976906228</v>
@@ -6733,19 +6733,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U32" t="n">
-        <v>4047.636833531609</v>
+        <v>4073.56008400557</v>
       </c>
       <c r="V32" t="n">
-        <v>3697.79927886809</v>
+        <v>3723.722529342051</v>
       </c>
       <c r="W32" t="n">
-        <v>3314.038978003258</v>
+        <v>3339.962228477219</v>
       </c>
       <c r="X32" t="n">
-        <v>2913.395580172211</v>
+        <v>2939.318830646172</v>
       </c>
       <c r="Y32" t="n">
-        <v>2512.458907120301</v>
+        <v>2538.382157594262</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="M33" t="n">
-        <v>936.2207783851894</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="N33" t="n">
-        <v>1809.878870496807</v>
+        <v>524.2254458227151</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,10 +6834,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>423.8317148059963</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C34" t="n">
-        <v>252.7383423677128</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D34" t="n">
         <v>93.2436976906228</v>
@@ -6888,22 +6888,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V34" t="n">
-        <v>1353.680646442718</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W34" t="n">
-        <v>1074.610981951593</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X34" t="n">
-        <v>836.267119811276</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y34" t="n">
-        <v>611.5314212000407</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="35">
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2102.237727455811</v>
+        <v>2238.282892603803</v>
       </c>
       <c r="C35" t="n">
-        <v>1692.113136769081</v>
+        <v>1828.158301917073</v>
       </c>
       <c r="D35" t="n">
-        <v>1287.649206862142</v>
+        <v>1423.694372010133</v>
       </c>
       <c r="E35" t="n">
-        <v>873.3089913790386</v>
+        <v>1009.35415652703</v>
       </c>
       <c r="F35" t="n">
         <v>588.3237444807176</v>
@@ -6937,7 +6937,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J35" t="n">
-        <v>347.429169158377</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K35" t="n">
         <v>885.5886702674165</v>
@@ -6967,22 +6967,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4304.697325272099</v>
+        <v>4440.742490420091</v>
       </c>
       <c r="U35" t="n">
-        <v>4047.636833531609</v>
+        <v>4183.681998679601</v>
       </c>
       <c r="V35" t="n">
-        <v>3697.79927886809</v>
+        <v>3833.844444016082</v>
       </c>
       <c r="W35" t="n">
-        <v>3314.038978003258</v>
+        <v>3450.08414315125</v>
       </c>
       <c r="X35" t="n">
-        <v>2913.395580172211</v>
+        <v>3049.440745320202</v>
       </c>
       <c r="Y35" t="n">
-        <v>2512.458907120301</v>
+        <v>2648.504072268292</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>704.368908940975</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>704.368908940975</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N36" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O36" t="n">
-        <v>1578.027001052593</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7125,19 +7125,19 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T37" t="n">
-        <v>1392.076815447654</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U37" t="n">
-        <v>1109.278667993779</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V37" t="n">
-        <v>835.3929229333004</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W37" t="n">
-        <v>556.3232584421747</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X37" t="n">
-        <v>317.9793963018581</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y37" t="n">
         <v>93.2436976906228</v>
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2144.727460069145</v>
+        <v>2151.931129920876</v>
       </c>
       <c r="C38" t="n">
-        <v>1734.602869382415</v>
+        <v>1741.806539234146</v>
       </c>
       <c r="D38" t="n">
-        <v>1734.602869382415</v>
+        <v>1337.342609327206</v>
       </c>
       <c r="E38" t="n">
-        <v>1320.262653899312</v>
+        <v>923.0023938441032</v>
       </c>
       <c r="F38" t="n">
-        <v>899.2322418529996</v>
+        <v>501.9719817977906</v>
       </c>
       <c r="G38" t="n">
-        <v>490.5039577458317</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H38" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I38" t="n">
         <v>93.2436976906228</v>
@@ -7204,22 +7204,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T38" t="n">
-        <v>4347.187057885433</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U38" t="n">
-        <v>4090.126566144943</v>
+        <v>4097.330235996674</v>
       </c>
       <c r="V38" t="n">
-        <v>3740.289011481424</v>
+        <v>3747.492681333154</v>
       </c>
       <c r="W38" t="n">
-        <v>3356.528710616592</v>
+        <v>3363.732380468323</v>
       </c>
       <c r="X38" t="n">
-        <v>2955.885312785545</v>
+        <v>2963.088982637275</v>
       </c>
       <c r="Y38" t="n">
-        <v>2554.948639733635</v>
+        <v>2562.152309585365</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J39" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K39" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L39" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M39" t="n">
-        <v>562.1177108836107</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="N39" t="n">
-        <v>1435.775802995229</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="O39" t="n">
-        <v>2139.732893541123</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="P39" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>798.0226983151792</v>
+        <v>487.8603711798485</v>
       </c>
       <c r="C40" t="n">
-        <v>798.0226983151792</v>
+        <v>487.8603711798485</v>
       </c>
       <c r="D40" t="n">
-        <v>798.0226983151792</v>
+        <v>487.8603711798485</v>
       </c>
       <c r="E40" t="n">
-        <v>691.0787157447054</v>
+        <v>487.8603711798485</v>
       </c>
       <c r="F40" t="n">
-        <v>526.4475898552967</v>
+        <v>323.2292452904397</v>
       </c>
       <c r="G40" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H40" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I40" t="n">
         <v>93.2436976906228</v>
@@ -7356,28 +7356,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R40" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S40" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1350.978107866783</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1350.978107866783</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>1077.092362806305</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="W40" t="n">
-        <v>798.0226983151792</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="X40" t="n">
-        <v>798.0226983151792</v>
+        <v>675.5600775738928</v>
       </c>
       <c r="Y40" t="n">
-        <v>798.0226983151792</v>
+        <v>675.5600775738928</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1735.400612045121</v>
+        <v>2139.86454195206</v>
       </c>
       <c r="C41" t="n">
-        <v>1325.276021358391</v>
+        <v>1729.739951265331</v>
       </c>
       <c r="D41" t="n">
         <v>1325.276021358391</v>
@@ -7411,19 +7411,19 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J41" t="n">
-        <v>81.1771097218074</v>
+        <v>335.3625811895617</v>
       </c>
       <c r="K41" t="n">
-        <v>282.2592718266466</v>
+        <v>873.5220822986012</v>
       </c>
       <c r="L41" t="n">
-        <v>994.8506716388846</v>
+        <v>1586.113482110839</v>
       </c>
       <c r="M41" t="n">
-        <v>1771.169262630639</v>
+        <v>2362.432073102593</v>
       </c>
       <c r="N41" t="n">
-        <v>2524.350279269257</v>
+        <v>3115.613089741211</v>
       </c>
       <c r="O41" t="n">
         <v>3167.981135686362</v>
@@ -7441,22 +7441,22 @@
         <v>4058.85548609037</v>
       </c>
       <c r="T41" t="n">
-        <v>3937.860209861408</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="U41" t="n">
-        <v>3680.799718120918</v>
+        <v>4058.85548609037</v>
       </c>
       <c r="V41" t="n">
-        <v>3330.962163457399</v>
+        <v>3709.017931426851</v>
       </c>
       <c r="W41" t="n">
-        <v>2947.201862592568</v>
+        <v>3325.257630562019</v>
       </c>
       <c r="X41" t="n">
-        <v>2546.55846476152</v>
+        <v>2924.614232730972</v>
       </c>
       <c r="Y41" t="n">
-        <v>2145.62179170961</v>
+        <v>2550.08572161655</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J42" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K42" t="n">
-        <v>536.9833659871061</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L42" t="n">
-        <v>536.9833659871061</v>
+        <v>1390.884395469028</v>
       </c>
       <c r="M42" t="n">
-        <v>1379.960446681673</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="N42" t="n">
-        <v>1423.709215026413</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="O42" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="P42" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q42" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R42" t="n">
         <v>2127.666305572307</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3547.642260622382</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="C43" t="n">
-        <v>3376.548888184099</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="D43" t="n">
-        <v>3217.054243507009</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="E43" t="n">
-        <v>3056.143428375328</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="F43" t="n">
-        <v>2962.660481634195</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="G43" t="n">
-        <v>2795.410090559738</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="H43" t="n">
-        <v>2645.802635365194</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I43" t="n">
-        <v>2529.456589469521</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="J43" t="n">
-        <v>2543.539138874731</v>
+        <v>95.25965912701793</v>
       </c>
       <c r="K43" t="n">
-        <v>2698.091466596969</v>
+        <v>249.8119868492559</v>
       </c>
       <c r="L43" t="n">
-        <v>2957.988566877029</v>
+        <v>509.7090871293165</v>
       </c>
       <c r="M43" t="n">
-        <v>3247.252623317523</v>
+        <v>798.9731435698097</v>
       </c>
       <c r="N43" t="n">
-        <v>3528.091405711773</v>
+        <v>1079.81192596406</v>
       </c>
       <c r="O43" t="n">
-        <v>3787.652016038247</v>
+        <v>1339.372536290534</v>
       </c>
       <c r="P43" t="n">
-        <v>3993.327456287859</v>
+        <v>1545.047976540147</v>
       </c>
       <c r="Q43" t="n">
-        <v>4058.85548609037</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="R43" t="n">
-        <v>3973.58276776577</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="S43" t="n">
-        <v>3787.19099964568</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="T43" t="n">
-        <v>3547.642260622382</v>
+        <v>1371.02726731936</v>
       </c>
       <c r="U43" t="n">
-        <v>3547.642260622382</v>
+        <v>1088.229119865484</v>
       </c>
       <c r="V43" t="n">
-        <v>3547.642260622382</v>
+        <v>814.3433748050059</v>
       </c>
       <c r="W43" t="n">
-        <v>3547.642260622382</v>
+        <v>535.2737103138802</v>
       </c>
       <c r="X43" t="n">
-        <v>3547.642260622382</v>
+        <v>296.9298481735636</v>
       </c>
       <c r="Y43" t="n">
-        <v>3547.642260622382</v>
+        <v>81.1771097218074</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2156.905493807442</v>
+        <v>2232.506184543393</v>
       </c>
       <c r="C44" t="n">
-        <v>1746.780903120713</v>
+        <v>1822.381593856663</v>
       </c>
       <c r="D44" t="n">
-        <v>1722.5362814136</v>
+        <v>1417.917663949724</v>
       </c>
       <c r="E44" t="n">
-        <v>1308.196065930496</v>
+        <v>1221.84430324757</v>
       </c>
       <c r="F44" t="n">
-        <v>887.1656538841841</v>
+        <v>800.8138912012572</v>
       </c>
       <c r="G44" t="n">
-        <v>478.4373697770162</v>
+        <v>392.0856070940894</v>
       </c>
       <c r="H44" t="n">
-        <v>167.5288724047342</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="I44" t="n">
         <v>81.1771097218074</v>
       </c>
       <c r="J44" t="n">
-        <v>335.3625811895617</v>
+        <v>81.1771097218074</v>
       </c>
       <c r="K44" t="n">
-        <v>873.5220822986012</v>
+        <v>619.3366108308469</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.113482110839</v>
+        <v>1331.928010643085</v>
       </c>
       <c r="M44" t="n">
-        <v>2362.432073102593</v>
+        <v>2108.246601634839</v>
       </c>
       <c r="N44" t="n">
-        <v>3115.613089741211</v>
+        <v>2861.427618273457</v>
       </c>
       <c r="O44" t="n">
-        <v>3759.243946158316</v>
+        <v>3505.058474690562</v>
       </c>
       <c r="P44" t="n">
-        <v>4058.85548609037</v>
+        <v>4034.215172609714</v>
       </c>
       <c r="Q44" t="n">
         <v>4058.85548609037</v>
@@ -7681,19 +7681,19 @@
         <v>3701.36792683133</v>
       </c>
       <c r="U44" t="n">
-        <v>3701.36792683133</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="V44" t="n">
-        <v>3351.530372167811</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="W44" t="n">
-        <v>2967.770071302979</v>
+        <v>3444.30743509084</v>
       </c>
       <c r="X44" t="n">
-        <v>2567.126673471932</v>
+        <v>3043.664037259793</v>
       </c>
       <c r="Y44" t="n">
-        <v>2567.126673471932</v>
+        <v>2642.727364207883</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>81.1771097218074</v>
       </c>
       <c r="J45" t="n">
-        <v>81.1771097218074</v>
+        <v>273.9899672844406</v>
       </c>
       <c r="K45" t="n">
-        <v>81.1771097218074</v>
+        <v>729.7962235497394</v>
       </c>
       <c r="L45" t="n">
-        <v>81.1771097218074</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="M45" t="n">
-        <v>550.0511229147953</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="N45" t="n">
-        <v>1423.709215026413</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="O45" t="n">
-        <v>2127.666305572307</v>
+        <v>1186.556429037164</v>
       </c>
       <c r="P45" t="n">
-        <v>2127.666305572307</v>
+        <v>1748.262321525694</v>
       </c>
       <c r="Q45" t="n">
-        <v>2127.666305572307</v>
+        <v>2098.106786209677</v>
       </c>
       <c r="R45" t="n">
         <v>2127.666305572307</v>
@@ -7782,13 +7782,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>81.1771097218074</v>
+        <v>550.0867507259428</v>
       </c>
       <c r="C46" t="n">
-        <v>81.1771097218074</v>
+        <v>378.9933782876593</v>
       </c>
       <c r="D46" t="n">
-        <v>81.1771097218074</v>
+        <v>219.4987336105693</v>
       </c>
       <c r="E46" t="n">
         <v>81.1771097218074</v>
@@ -7836,22 +7836,22 @@
         <v>1610.576006342658</v>
       </c>
       <c r="T46" t="n">
-        <v>1371.02726731936</v>
+        <v>1610.576006342658</v>
       </c>
       <c r="U46" t="n">
-        <v>1088.229119865484</v>
+        <v>1327.777858888782</v>
       </c>
       <c r="V46" t="n">
-        <v>814.3433748050059</v>
+        <v>1053.892113828304</v>
       </c>
       <c r="W46" t="n">
-        <v>535.2737103138802</v>
+        <v>774.8224493371781</v>
       </c>
       <c r="X46" t="n">
-        <v>296.9298481735636</v>
+        <v>774.8224493371781</v>
       </c>
       <c r="Y46" t="n">
-        <v>81.1771097218074</v>
+        <v>550.0867507259428</v>
       </c>
     </row>
   </sheetData>
@@ -7984,16 +7984,16 @@
         <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>552.9160747585987</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>615.7129336509097</v>
@@ -8002,7 +8002,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>334.1030092285466</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8230,13 +8230,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O5" t="n">
-        <v>146.0867917319955</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>355.3209736268326</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8303,22 +8303,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>587.0713442545288</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8470,10 +8470,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
-        <v>287.6689177404308</v>
+        <v>355.3209736268326</v>
       </c>
       <c r="Q8" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8540,19 +8540,19 @@
         <v>723.8803540323523</v>
       </c>
       <c r="M9" t="n">
-        <v>551.1310269936541</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>768.8192472281761</v>
+        <v>341.6280539455204</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
         <v>59.00019910540541</v>
@@ -8692,13 +8692,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>569.9983983158803</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L11" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M11" t="n">
-        <v>877.4504173780091</v>
+        <v>604.6203126541075</v>
       </c>
       <c r="N11" t="n">
         <v>853.701196452193</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8771,19 +8771,19 @@
         <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>196.176898678467</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L14" t="n">
         <v>815.2746908024792</v>
@@ -8947,10 +8947,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.7991553409466</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9017,19 +9017,19 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>841.9067396726143</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>291.8133246603422</v>
       </c>
       <c r="P15" t="n">
         <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9178,7 +9178,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O17" t="n">
-        <v>743.321953824879</v>
+        <v>743.3219538248791</v>
       </c>
       <c r="P17" t="n">
         <v>628.1510783507341</v>
@@ -9187,7 +9187,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,19 +9242,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>781.8318064390068</v>
+        <v>801.788435357892</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>128.2784515920618</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>233.5370807419598</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9956,22 +9956,22 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>282.1764805785802</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M30" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N30" t="n">
-        <v>601.0963663600584</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
         <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,28 +10427,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>296.4004197234629</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O33" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>673.412716993023</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
         <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>621.6393243851574</v>
+        <v>415.2474391004466</v>
       </c>
       <c r="Q36" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,28 +10901,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O39" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>445.1055394667395</v>
       </c>
       <c r="Q39" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>292.2496847286102</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11074,7 +11074,7 @@
         <v>853.701196452193</v>
       </c>
       <c r="O41" t="n">
-        <v>743.321953824879</v>
+        <v>146.0867917319955</v>
       </c>
       <c r="P41" t="n">
         <v>628.1510783507341</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N42" t="n">
-        <v>97.38406848944746</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K44" t="n">
         <v>632.7318453389136</v>
@@ -11314,10 +11314,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P44" t="n">
-        <v>396.2872824041708</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>114.9230099351687</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M45" t="n">
-        <v>531.1743980747689</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,10 +22546,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>305.4862487535763</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22564,10 +22564,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22597,22 +22597,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>360.0242673938929</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22716,16 +22716,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>92.44965918848808</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="5">
@@ -22801,10 +22801,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22834,22 +22834,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>73.09255865588568</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>380.0567639845628</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23007,10 +23007,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="8">
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>39.50903991658682</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,25 +23071,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>284.5678228240295</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="9">
@@ -23178,7 +23178,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -23226,13 +23226,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -23244,10 +23244,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
@@ -23317,13 +23317,13 @@
         <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>73.09255865588568</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>160.0723447719531</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="14">
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>31.29022734077449</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>26.14408031811303</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300453</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="17">
@@ -23743,10 +23743,10 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23785,7 +23785,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -23797,7 +23797,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>222.4997066824612</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,25 +23889,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23943,22 +23943,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>137.4342356413303</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="20">
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23986,7 +23986,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.19646844041357</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>4.8745592198064</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -24180,10 +24180,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24256,13 +24256,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
-        <v>49.19646844041395</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>3.083197172522915</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V25" t="n">
-        <v>134.9699070214199</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24451,10 +24451,10 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>25.66401796922133</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,13 +24499,13 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>187.9942390719858</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>36.46078111520814</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24742,10 +24742,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>45.84716204233376</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,10 +24903,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>55.35263051300575</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24928,16 +24928,16 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>25.66401796922159</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
@@ -25128,13 +25128,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25143,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="35">
@@ -25165,7 +25165,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>134.6847134965117</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25365,7 +25365,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>8.893130557884461</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="38">
@@ -25396,7 +25396,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25408,10 +25408,10 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>42.06483528720082</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>49.19646844041395</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>169.3824387139007</v>
@@ -25557,19 +25557,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>53.42716423559462</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>86.00357568249115</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,25 +25596,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>222.4883416251229</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>100.1990957459376</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25696,7 +25696,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>26.14408031811291</v>
       </c>
     </row>
     <row r="42">
@@ -25788,25 +25788,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>70.43669735679232</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>8.893130557884319</v>
       </c>
     </row>
     <row r="44">
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>376.4171151178283</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>216.0841862331399</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25885,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25921,19 +25921,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,13 +26025,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>22.36329933048941</v>
       </c>
       <c r="F46" t="n">
         <v>162.9848146305146</v>
@@ -26076,7 +26076,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>8.893130557884319</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>693399.1440019248</v>
+        <v>693399.1440019249</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>693399.1440019247</v>
+        <v>693399.1440019249</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>693399.1440019247</v>
+        <v>693399.1440019249</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>754065.7853119023</v>
+        <v>754065.7853119022</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>754065.7853119019</v>
+        <v>754065.7853119023</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>754065.7853119022</v>
+        <v>754065.7853119023</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>754065.7853119021</v>
+        <v>754065.7853119023</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>754065.7853119022</v>
+        <v>754065.7853119019</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>693399.1440019245</v>
+        <v>693399.1440019248</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>693399.1440019249</v>
+        <v>693399.1440019247</v>
       </c>
     </row>
   </sheetData>
@@ -26322,10 +26322,10 @@
         <v>292986.9033045657</v>
       </c>
       <c r="E2" t="n">
-        <v>292986.9033045658</v>
+        <v>292986.9033045657</v>
       </c>
       <c r="F2" t="n">
-        <v>292986.9033045658</v>
+        <v>292986.9033045657</v>
       </c>
       <c r="G2" t="n">
         <v>318613.5342886032</v>
@@ -26340,19 +26340,19 @@
         <v>318613.5342886031</v>
       </c>
       <c r="K2" t="n">
-        <v>318613.5342886032</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="L2" t="n">
-        <v>318613.5342886033</v>
+        <v>318613.5342886031</v>
       </c>
       <c r="M2" t="n">
         <v>318613.5342886032</v>
       </c>
       <c r="N2" t="n">
-        <v>318613.5342886031</v>
+        <v>318613.5342886033</v>
       </c>
       <c r="O2" t="n">
-        <v>292986.9033045657</v>
+        <v>292986.9033045658</v>
       </c>
       <c r="P2" t="n">
         <v>292986.9033045657</v>
@@ -26392,7 +26392,7 @@
         <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
-        <v>126792.4227070338</v>
+        <v>126792.4227070339</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39061.35498003941</v>
+        <v>39061.35498003942</v>
       </c>
       <c r="C4" t="n">
         <v>54821.80938920873</v>
       </c>
       <c r="D4" t="n">
-        <v>54821.80938920874</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="E4" t="n">
-        <v>54821.80938920874</v>
+        <v>54821.80938920873</v>
       </c>
       <c r="F4" t="n">
         <v>54821.80938920873</v>
       </c>
       <c r="G4" t="n">
-        <v>59647.11115782198</v>
+        <v>59647.11115782197</v>
       </c>
       <c r="H4" t="n">
         <v>59647.11115782197</v>
@@ -26444,10 +26444,10 @@
         <v>59647.11115782197</v>
       </c>
       <c r="K4" t="n">
+        <v>59647.11115782197</v>
+      </c>
+      <c r="L4" t="n">
         <v>59647.11115782198</v>
-      </c>
-      <c r="L4" t="n">
-        <v>59647.11115782197</v>
       </c>
       <c r="M4" t="n">
         <v>59647.11115782197</v>
@@ -26459,7 +26459,7 @@
         <v>54821.80938920873</v>
       </c>
       <c r="P4" t="n">
-        <v>54821.80938920874</v>
+        <v>54821.80938920873</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-70101.01434693535</v>
+        <v>-70778.54320632938</v>
       </c>
       <c r="C6" t="n">
-        <v>-16317.98022468295</v>
+        <v>-16615.04550362313</v>
       </c>
       <c r="D6" t="n">
-        <v>142842.8905267833</v>
+        <v>142545.8252478431</v>
       </c>
       <c r="E6" t="n">
-        <v>176470.4905267834</v>
+        <v>176173.4252478431</v>
       </c>
       <c r="F6" t="n">
-        <v>176470.4905267834</v>
+        <v>176173.4252478431</v>
       </c>
       <c r="G6" t="n">
-        <v>146760.3283429983</v>
+        <v>146579.7477503493</v>
       </c>
       <c r="H6" t="n">
-        <v>188101.212885908</v>
+        <v>187920.6322932589</v>
       </c>
       <c r="I6" t="n">
-        <v>188101.2128859079</v>
+        <v>187920.6322932589</v>
       </c>
       <c r="J6" t="n">
-        <v>51506.41208001284</v>
+        <v>51325.83148736374</v>
       </c>
       <c r="K6" t="n">
-        <v>61308.7901788741</v>
+        <v>61128.20958622487</v>
       </c>
       <c r="L6" t="n">
-        <v>188101.212885908</v>
+        <v>187920.6322932587</v>
       </c>
       <c r="M6" t="n">
-        <v>188101.2128859079</v>
+        <v>187920.6322932588</v>
       </c>
       <c r="N6" t="n">
-        <v>188101.2128859079</v>
+        <v>187920.6322932589</v>
       </c>
       <c r="O6" t="n">
-        <v>176470.4905267833</v>
+        <v>176173.4252478432</v>
       </c>
       <c r="P6" t="n">
-        <v>176470.4905267833</v>
+        <v>176173.4252478431</v>
       </c>
     </row>
   </sheetData>
@@ -27014,7 +27014,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>492.6503011525669</v>
+        <v>492.650301152567</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27038,7 +27038,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525669</v>
+        <v>492.6503011525671</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27260,7 +27260,7 @@
         <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>492.6503011525669</v>
+        <v>492.650301152567</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -34704,16 +34704,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>500.9700927793178</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
-        <v>460.0037840019794</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>522.0635703700256</v>
@@ -34722,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>276.3515302285466</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34950,13 +34950,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O5" t="n">
-        <v>52.89701610621237</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>261.6716103459484</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35023,22 +35023,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>529.5070605161113</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35190,10 +35190,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
-        <v>194.0195544595466</v>
+        <v>261.6716103459484</v>
       </c>
       <c r="Q8" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35260,19 +35260,19 @@
         <v>667.7658302215033</v>
       </c>
       <c r="M9" t="n">
-        <v>493.5667432552367</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>711.0677682281761</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>480.8620086426632</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L11" t="n">
         <v>719.7892927396343</v>
       </c>
       <c r="M11" t="n">
-        <v>784.1601929209636</v>
+        <v>511.330088197062</v>
       </c>
       <c r="N11" t="n">
         <v>760.7889056955737</v>
@@ -35427,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35491,19 +35491,19 @@
         <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>138.425419678467</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L14" t="n">
         <v>719.7892927396343</v>
@@ -35667,10 +35667,10 @@
         <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>270.7653509417946</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35737,19 +35737,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>788.7133462788644</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>234.0618456603422</v>
       </c>
       <c r="P15" t="n">
         <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35898,7 +35898,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O17" t="n">
-        <v>650.1321781990958</v>
+        <v>650.132178199096</v>
       </c>
       <c r="P17" t="n">
         <v>534.50171506985</v>
@@ -35907,7 +35907,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R17" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,19 +35962,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>724.2675227005893</v>
+        <v>744.2241516194746</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>40.96630877733828</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>176.8444622371211</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36676,22 +36676,22 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>227.9168455757764</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M30" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>240.5746369388475</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>617.2981931821739</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>567.3796893823536</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M39" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>390.8459044639358</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>203.1132950553931</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37794,7 +37794,7 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O41" t="n">
-        <v>650.1321781990958</v>
+        <v>52.89701610621237</v>
       </c>
       <c r="P41" t="n">
         <v>534.50171506985</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M42" t="n">
-        <v>851.4920007015825</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N42" t="n">
-        <v>44.19067509569746</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>543.5954556656965</v>
@@ -38034,10 +38034,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P44" t="n">
-        <v>302.6379191232867</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>24.88920553601663</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M45" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
